--- a/multi_it/backend/web-workspace/mavenExecel/src/main/java/org/example/b_poii_jar/excelFile1.xlsx
+++ b/multi_it/backend/web-workspace/mavenExecel/src/main/java/org/example/b_poii_jar/excelFile1.xlsx
@@ -23,13 +23,13 @@
     <t>단어 길이</t>
   </si>
   <si>
-    <t>와이즈넛, 코스닥 상장 위해 예심 신청</t>
+    <t>끊어진 말초신경을 재생시켰다</t>
   </si>
   <si>
-    <t>1일전</t>
+    <t>7시간전</t>
   </si>
   <si>
-    <t>6</t>
+    <t>3</t>
   </si>
 </sst>
 </file>
